--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17892" windowHeight="8244"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17892" windowHeight="8244" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Locators" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="RunnerConfig" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>DEL</t>
   </si>
@@ -52,13 +52,58 @@
   </si>
   <si>
     <t>OneWay</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>ToRun</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>InvocationCount</t>
+  </si>
+  <si>
+    <t>webapp</t>
+  </si>
+  <si>
+    <t>FSI Test</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>loginTest</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>handleAjaxList</t>
+  </si>
+  <si>
+    <t>Handle dynamic suggestion</t>
+  </si>
+  <si>
+    <t>testSearchItems</t>
+  </si>
+  <si>
+    <t>Search Item - Flipkart</t>
+  </si>
+  <si>
+    <t>Login to Flipkart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +111,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -102,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -111,6 +170,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,12 +588,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -12,11 +12,12 @@
     <sheet name="RunnerConfig" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:Q25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>DEL</t>
   </si>
@@ -97,6 +98,18 @@
   </si>
   <si>
     <t>Login to Flipkart</t>
+  </si>
+  <si>
+    <t>TestCase 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case02 </t>
+  </si>
+  <si>
+    <t>testCase01</t>
+  </si>
+  <si>
+    <t>testCase02</t>
   </si>
 </sst>
 </file>
@@ -588,10 +601,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -645,7 +658,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -662,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -680,6 +693,28 @@
       </c>
       <c r="C5" s="5" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17892" windowHeight="8244" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="18744" windowHeight="8244" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>DEL</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>testCase02</t>
+  </si>
+  <si>
+    <t>Initiate Search - RoundTrip</t>
+  </si>
+  <si>
+    <t>roundTripSearchTest</t>
   </si>
 </sst>
 </file>
@@ -601,15 +607,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" hidden="1" customWidth="1"/>
@@ -703,7 +709,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -714,6 +720,17 @@
         <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
     </row>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="18744" windowHeight="8244" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13545" windowHeight="6180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="RunnerConfig" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q25"/>
+  <oleSize ref="A1:M17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>DEL</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>roundTripSearchTest</t>
+  </si>
+  <si>
+    <t>searchTopKeyword</t>
+  </si>
+  <si>
+    <t>Search keyword -typhoon</t>
   </si>
 </sst>
 </file>
@@ -153,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -176,11 +182,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -191,6 +210,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,6 +220,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -248,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,17 +521,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -528,7 +551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -566,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +622,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -607,22 +630,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -639,7 +662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -656,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -673,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -690,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -701,7 +724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -712,7 +735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -723,7 +746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -731,6 +754,17 @@
         <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
     </row>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="18744" windowHeight="8244" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="18504" windowHeight="8244" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>DEL</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>roundTripSearchTest</t>
+  </si>
+  <si>
+    <t>baeSearchTest</t>
+  </si>
+  <si>
+    <t>BAE Search Test</t>
   </si>
 </sst>
 </file>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,6 +737,17 @@
         <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
